--- a/Proyectos_Ventas_2026.xlsx
+++ b/Proyectos_Ventas_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siste\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958BBD01-ADB4-4EBF-9F7C-9564779CE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708AAF2C-4DF4-4948-A348-33E1B728491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen_Mensual" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Personal" sheetId="5" r:id="rId5"/>
     <sheet name="Registro Trabajo 2026" sheetId="6" r:id="rId6"/>
     <sheet name="Desempeño" sheetId="7" r:id="rId7"/>
+    <sheet name="Proyectos" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5671" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5695" uniqueCount="91">
   <si>
     <t>Mes</t>
   </si>
@@ -376,31 +377,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -408,13 +388,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -447,16 +420,44 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -519,7 +520,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BCAEDFE6-D1FC-476E-9E99-A15F08257490}" name="RegistrosTrabajo" displayName="RegistrosTrabajo" ref="A1:F736" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BCAEDFE6-D1FC-476E-9E99-A15F08257490}" name="RegistrosTrabajo" displayName="RegistrosTrabajo" ref="A1:F736" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:F736" xr:uid="{BCAEDFE6-D1FC-476E-9E99-A15F08257490}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BF972D87-1C3D-4E44-83E7-947583A6245E}" name="Mes"/>
@@ -534,7 +535,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AA8EC87-8752-4A7B-9D84-F366DF92B69C}" name="TablaDesempeño" displayName="TablaDesempeño" ref="A1:F190" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AA8EC87-8752-4A7B-9D84-F366DF92B69C}" name="TablaDesempeño" displayName="TablaDesempeño" ref="A1:F190" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:F190" xr:uid="{7AA8EC87-8752-4A7B-9D84-F366DF92B69C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{34103163-2307-4110-8FB4-2701416F29C7}" name="Mes"/>
@@ -543,6 +544,17 @@
     <tableColumn id="4" xr3:uid="{C4E5B518-8BB2-4951-B5C0-5DF57374BAC8}" name="Rol Evaluador"/>
     <tableColumn id="5" xr3:uid="{AFCC5B50-0122-47EC-A15A-F7D5D90AF4C2}" name="Sentimiento"/>
     <tableColumn id="6" xr3:uid="{72C49608-87DD-465C-830A-186E8D8C1704}" name="Feedback del Gerente"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{363D0D74-E1F8-4962-987C-1F1E4D7CA4FF}" name="TablaProyectos" displayName="TablaProyectos" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{363D0D74-E1F8-4962-987C-1F1E4D7CA4FF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F9AF093D-AA11-48BA-A7BB-B0F52DB23D3C}" name="Tipo"/>
+    <tableColumn id="2" xr3:uid="{0C02EA94-1EA9-4D29-801B-8D72CC166256}" name="Descripcion del Trabajo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,7 +1093,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C8" sqref="C8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1725,7 +1737,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2147,7 +2159,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7684,7 +7696,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8064,8 +8076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D987B5C-4D49-4B08-BA98-B4EABA8CA7B7}">
   <dimension ref="A1:F736"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A717" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22810,8 +22822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2806B99-AF50-4AA8-88AA-FA179A7DFC21}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26630,4 +26642,122 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622C17E0-F989-4297-9C14-3CDAC98F1AC6}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>